--- a/bot.xlsx
+++ b/bot.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flame\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550B748A-81C8-4E89-9A1F-D9B541B2AD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="571">
   <si>
     <t>Store Name</t>
   </si>
@@ -52,7 +58,7 @@
     <t>Dark Sphere Shepherd's Bush Gaming Centre</t>
   </si>
   <si>
-    <t xml:space="preserve">Kaboom Cards UK </t>
+    <t>Kaboom Cards UK </t>
   </si>
   <si>
     <t>P9 Card Game Bow</t>
@@ -1367,13 +1373,373 @@
   </si>
   <si>
     <t>07986 978514</t>
+  </si>
+  <si>
+    <t>Toytown Aberdeen</t>
+  </si>
+  <si>
+    <t>Unit 5/6, The Trinity Centre, Aberdeen, Scotland</t>
+  </si>
+  <si>
+    <t>01224 583 474</t>
+  </si>
+  <si>
+    <t>AB11 6BE</t>
+  </si>
+  <si>
+    <t>Toytown Ards</t>
+  </si>
+  <si>
+    <t>Unit C5/6, Ards Shopping Centre, Newtownards, Down, Northern Ireland</t>
+  </si>
+  <si>
+    <t>028 9182 2877</t>
+  </si>
+  <si>
+    <t>BT23 4BN</t>
+  </si>
+  <si>
+    <t>Toytown Ayr</t>
+  </si>
+  <si>
+    <t>Unit 10A, Taran Walk, Ayr Central Shopping Centre, Ayr, Scotland</t>
+  </si>
+  <si>
+    <t>01292 282 945</t>
+  </si>
+  <si>
+    <t>KA7 1TU</t>
+  </si>
+  <si>
+    <t>Toytown Ballymena</t>
+  </si>
+  <si>
+    <t>Unit 52‑54, Fairhill Shopping Centre, Fairhill Lane, Ballymena, Antrim</t>
+  </si>
+  <si>
+    <t>028 2564 4202</t>
+  </si>
+  <si>
+    <t>BT43 6UF</t>
+  </si>
+  <si>
+    <t>–6.275023</t>
+  </si>
+  <si>
+    <t>Toytown Banbridge</t>
+  </si>
+  <si>
+    <t>Unit 48, Bridge Water Park, Banbridge, Down</t>
+  </si>
+  <si>
+    <t>028 4062 9778</t>
+  </si>
+  <si>
+    <t>BT32 4LF</t>
+  </si>
+  <si>
+    <t>Toytown Castleford</t>
+  </si>
+  <si>
+    <t>Unit 26, Junction 32 Outlet Village, Castleford, West Yorkshire</t>
+  </si>
+  <si>
+    <t>01977 551 900</t>
+  </si>
+  <si>
+    <t>WF10 4FR</t>
+  </si>
+  <si>
+    <t>Toytown Coleraine</t>
+  </si>
+  <si>
+    <t>Moores of Coleraine, 9–11 Church Street, Coleraine, LC Derry</t>
+  </si>
+  <si>
+    <t>028 703 55243</t>
+  </si>
+  <si>
+    <t>BT52 1AN</t>
+  </si>
+  <si>
+    <t> –6.670251</t>
+  </si>
+  <si>
+    <t> 55.131512</t>
+  </si>
+  <si>
+    <t>Toytown Coventry</t>
+  </si>
+  <si>
+    <t>Unit MSU5, Level One, West Orchards Shopping Centre, Coventry</t>
+  </si>
+  <si>
+    <t>024 7622 7275</t>
+  </si>
+  <si>
+    <t>CV1 1QX</t>
+  </si>
+  <si>
+    <t>Toytown Dumfries</t>
+  </si>
+  <si>
+    <t>7 Church Place, Dumfries, Scotland</t>
+  </si>
+  <si>
+    <t>01387 264 884</t>
+  </si>
+  <si>
+    <t>DG1 1BW</t>
+  </si>
+  <si>
+    <t>Toytown Dundee</t>
+  </si>
+  <si>
+    <t>Upper 18, Overgate Shopping Centre, Dundee, Scotland</t>
+  </si>
+  <si>
+    <t>01382 203 366</t>
+  </si>
+  <si>
+    <t>DD1 1UQ</t>
+  </si>
+  <si>
+    <t>Toytown Enniskillen</t>
+  </si>
+  <si>
+    <t>20 Shore Road, Enniskillen, Fermanagh</t>
+  </si>
+  <si>
+    <t>028 6632 2122</t>
+  </si>
+  <si>
+    <t>BT74 7EF</t>
+  </si>
+  <si>
+    <t>Toytown Glasgow</t>
+  </si>
+  <si>
+    <t>Unit 102, The Forge Shopping Centre, Glasgow, Scotland</t>
+  </si>
+  <si>
+    <t>0141 556 6187</t>
+  </si>
+  <si>
+    <t>G31 4EB</t>
+  </si>
+  <si>
+    <t>Toytown Glenrothes</t>
+  </si>
+  <si>
+    <t>23a Unicorn Way, The Kingdom Shopping Centre, Glenrothes, Fife</t>
+  </si>
+  <si>
+    <t>01592 755 086</t>
+  </si>
+  <si>
+    <t>KY7 5NU</t>
+  </si>
+  <si>
+    <t>Toytown Hull</t>
+  </si>
+  <si>
+    <t>Unit G5, Princes Quay Shopping Centre, Hull, East Yorkshire</t>
+  </si>
+  <si>
+    <t>01482 322 127</t>
+  </si>
+  <si>
+    <t>HU1 2PQ</t>
+  </si>
+  <si>
+    <t>Toytown Kirkcaldy</t>
+  </si>
+  <si>
+    <t>Unit 16‑18, Mercat Shopping Centre, Kirkcaldy, Fife, Scotland</t>
+  </si>
+  <si>
+    <t>01592 264 405</t>
+  </si>
+  <si>
+    <t>KY1 1NJ</t>
+  </si>
+  <si>
+    <t>Toytown Leicester</t>
+  </si>
+  <si>
+    <t>Unit 43‑47, High Street, Leicester, Leicestershire</t>
+  </si>
+  <si>
+    <t>0116 251 2635</t>
+  </si>
+  <si>
+    <t>LE1 4FP</t>
+  </si>
+  <si>
+    <t>Toytown Lisburn</t>
+  </si>
+  <si>
+    <t>Unit 1, Bow Street Mall, Lisburn, Antrim</t>
+  </si>
+  <si>
+    <t>028 9267 4999</t>
+  </si>
+  <si>
+    <t>BT28 1AW</t>
+  </si>
+  <si>
+    <t>Toytown Lisnagelvin</t>
+  </si>
+  <si>
+    <t>Unit 13B, Lisnagelvin Shopping Centre, Londonderry, Northern Ireland</t>
+  </si>
+  <si>
+    <t>028 7134 1475</t>
+  </si>
+  <si>
+    <t>BT47 6DF</t>
+  </si>
+  <si>
+    <t>–7.295957</t>
+  </si>
+  <si>
+    <t>Toytown Maidstone</t>
+  </si>
+  <si>
+    <t>Unit D2, The Mall Shopping Centre, Pad’s Hill, Maidstone, England</t>
+  </si>
+  <si>
+    <t>01622 232 405</t>
+  </si>
+  <si>
+    <t>ME15 6AT</t>
+  </si>
+  <si>
+    <t>Toytown Merry Hill</t>
+  </si>
+  <si>
+    <t>Unit L46‑L47, Intu Merry Hill Shopping Centre, Dudley, West Midlands</t>
+  </si>
+  <si>
+    <t>01384 265 716</t>
+  </si>
+  <si>
+    <t>DY5 1QX</t>
+  </si>
+  <si>
+    <t>Toytown Middlesbrough</t>
+  </si>
+  <si>
+    <t>The Cleveland Shopping Centre, Middlesbrough, Cleveland</t>
+  </si>
+  <si>
+    <t>01642 230 824</t>
+  </si>
+  <si>
+    <t>TS1 2LS</t>
+  </si>
+  <si>
+    <t>Toytown Perth</t>
+  </si>
+  <si>
+    <t>Unit 8, St John's Centre, King Edward’s Street, Perth, Scotland</t>
+  </si>
+  <si>
+    <t>01738 633 704</t>
+  </si>
+  <si>
+    <t>PH1 5UB</t>
+  </si>
+  <si>
+    <t>Toytown Poole</t>
+  </si>
+  <si>
+    <t>Unit 21‑26, Dolphin Centre, Poole, Dorset</t>
+  </si>
+  <si>
+    <t>01202 678 221</t>
+  </si>
+  <si>
+    <t>BH15 1SZ</t>
+  </si>
+  <si>
+    <t>Toytown Portrush</t>
+  </si>
+  <si>
+    <t>The Whitehouse, Portrush, Antrim</t>
+  </si>
+  <si>
+    <t>028 708 25943</t>
+  </si>
+  <si>
+    <t>BT56 8BN</t>
+  </si>
+  <si>
+    <t>Toytown Portsmouth</t>
+  </si>
+  <si>
+    <t>Unit 103, Cascades Shopping Centre, Portsmouth, Hampshire</t>
+  </si>
+  <si>
+    <t>023 9282 6533</t>
+  </si>
+  <si>
+    <t>PO1 4RL</t>
+  </si>
+  <si>
+    <t>Toytown Sheffield</t>
+  </si>
+  <si>
+    <t>Unit 43‑44 West Mall, Crystal Peaks Shopping Centre, Sheffield, Yorkshire</t>
+  </si>
+  <si>
+    <t>0114 2486 276</t>
+  </si>
+  <si>
+    <t>S20 7PJ</t>
+  </si>
+  <si>
+    <t>Toytown Uxbridge</t>
+  </si>
+  <si>
+    <t>Unit 123/124, Intu Centre, High Street, Uxbridge, London</t>
+  </si>
+  <si>
+    <t>01895 274 289</t>
+  </si>
+  <si>
+    <t>UB8 1LA</t>
+  </si>
+  <si>
+    <t>Toytown Wigan</t>
+  </si>
+  <si>
+    <t>Unit LSU03, Grand Arcade Shopping Centre, Wigan, Lancashire</t>
+  </si>
+  <si>
+    <t>01942 366 621</t>
+  </si>
+  <si>
+    <t>WN1 1BH</t>
+  </si>
+  <si>
+    <t>Toytown Worcester</t>
+  </si>
+  <si>
+    <t>Unit 29‑34, Friary Walk, Crowngate Shopping Centre, Worcester</t>
+  </si>
+  <si>
+    <t>01905 723 955</t>
+  </si>
+  <si>
+    <t>WR1 3LE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1436,13 +1802,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1480,7 +1854,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1514,6 +1888,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1548,9 +1923,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1723,14 +2099,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F152"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153:F181"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1750,7 +2128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1764,13 +2142,13 @@
         <v>2070524472</v>
       </c>
       <c r="E2">
-        <v>-0.0635318</v>
+        <v>-6.3531799999999999E-2</v>
       </c>
       <c r="F2">
-        <v>51.4920687</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>51.492068699999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1784,13 +2162,13 @@
         <v>7403989945</v>
       </c>
       <c r="E3">
-        <v>-0.09936</v>
+        <v>-9.9360000000000004E-2</v>
       </c>
       <c r="F3">
-        <v>51.49498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>51.494979999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1804,13 +2182,13 @@
         <v>2070524472</v>
       </c>
       <c r="E4">
-        <v>-0.06544</v>
+        <v>-6.5439999999999998E-2</v>
       </c>
       <c r="F4">
-        <v>51.49185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>51.491849999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1824,13 +2202,13 @@
         <v>3331123489</v>
       </c>
       <c r="E5">
-        <v>-0.0971532</v>
+        <v>-9.7153199999999995E-2</v>
       </c>
       <c r="F5">
-        <v>51.4883889</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>51.488388899999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1844,13 +2222,13 @@
         <v>2074203666</v>
       </c>
       <c r="E6">
-        <v>-0.1273479</v>
+        <v>-0.12734790000000001</v>
       </c>
       <c r="F6">
-        <v>51.5150637</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>51.515063699999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1864,13 +2242,13 @@
         <v>2087492916</v>
       </c>
       <c r="E7">
-        <v>-0.2187042</v>
+        <v>-0.21870419999999999</v>
       </c>
       <c r="F7">
         <v>51.503574</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1884,13 +2262,13 @@
         <v>2079161983</v>
       </c>
       <c r="E8">
-        <v>-0.1078999</v>
+        <v>-0.10789990000000001</v>
       </c>
       <c r="F8">
-        <v>51.5653461</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>51.565346099999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1904,13 +2282,13 @@
         <v>2031613786</v>
       </c>
       <c r="E9">
-        <v>-0.0295746</v>
+        <v>-2.95746E-2</v>
       </c>
       <c r="F9">
-        <v>51.5332426</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>51.533242600000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1924,13 +2302,13 @@
         <v>7354963030</v>
       </c>
       <c r="E10">
-        <v>0.012284</v>
+        <v>1.2284E-2</v>
       </c>
       <c r="F10">
-        <v>51.4507197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>51.450719700000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1944,13 +2322,13 @@
         <v>1708755469</v>
       </c>
       <c r="E11">
-        <v>0.1832731</v>
+        <v>0.18327309999999999</v>
       </c>
       <c r="F11">
         <v>51.5780162</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1964,13 +2342,13 @@
         <v>7572416146</v>
       </c>
       <c r="E12">
-        <v>0.14778</v>
+        <v>0.14777999999999999</v>
       </c>
       <c r="F12">
-        <v>51.45691</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>51.456910000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1984,13 +2362,13 @@
         <v>7746577811</v>
       </c>
       <c r="E13">
-        <v>-0.2949587</v>
+        <v>-0.29495870000000002</v>
       </c>
       <c r="F13">
-        <v>51.570752</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>51.570751999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2004,10 +2382,10 @@
         <v>-1.838284</v>
       </c>
       <c r="F14">
-        <v>52.5248325</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>52.524832500000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2021,13 +2399,13 @@
         <v>7808332849</v>
       </c>
       <c r="E15">
-        <v>-1.8972455</v>
+        <v>-1.8972454999999999</v>
       </c>
       <c r="F15">
-        <v>52.481913</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>52.481912999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2047,7 +2425,7 @@
         <v>52.47372</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2061,13 +2439,13 @@
         <v>7982369178</v>
       </c>
       <c r="E17">
-        <v>-2.24721</v>
+        <v>-2.2472099999999999</v>
       </c>
       <c r="F17">
-        <v>52.3873</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>52.387300000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -2081,13 +2459,13 @@
         <v>1562865353</v>
       </c>
       <c r="E18">
-        <v>-2.246182</v>
+        <v>-2.2461820000000001</v>
       </c>
       <c r="F18">
-        <v>52.3707327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>52.370732699999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2101,13 +2479,13 @@
         <v>7861125483</v>
       </c>
       <c r="E19">
-        <v>-2.1249345</v>
+        <v>-2.1249345000000002</v>
       </c>
       <c r="F19">
-        <v>52.8034346</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>52.803434600000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2121,13 +2499,13 @@
         <v>1926257727</v>
       </c>
       <c r="E20">
-        <v>-1.5335852</v>
+        <v>-1.5335852000000001</v>
       </c>
       <c r="F20">
-        <v>52.2914153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>52.291415299999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2144,10 +2522,10 @@
         <v>-1.8971589</v>
       </c>
       <c r="F21">
-        <v>52.4800296</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>52.480029600000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2161,13 +2539,13 @@
         <v>1952986037</v>
       </c>
       <c r="E22">
-        <v>-2.44613</v>
+        <v>-2.4461300000000001</v>
       </c>
       <c r="F22">
-        <v>52.6942</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>52.694200000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2181,13 +2559,13 @@
         <v>7972160257</v>
       </c>
       <c r="E23">
-        <v>-1.4412892</v>
+        <v>-1.4412891999999999</v>
       </c>
       <c r="F23">
-        <v>52.3981969</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>52.398196900000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -2201,13 +2579,13 @@
         <v>1384226205</v>
       </c>
       <c r="E24">
-        <v>-1.9084574</v>
+        <v>-1.9084574000000001</v>
       </c>
       <c r="F24">
-        <v>52.4879274</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>52.487927399999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -2221,13 +2599,13 @@
         <v>7761932491</v>
       </c>
       <c r="E25">
-        <v>-1.2066482</v>
+        <v>-1.2066482000000001</v>
       </c>
       <c r="F25">
-        <v>52.7725619</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>52.772561899999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -2244,10 +2622,10 @@
         <v>-1.8186121</v>
       </c>
       <c r="F26">
-        <v>52.452173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>52.452173000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2261,10 +2639,10 @@
         <v>-1.93451</v>
       </c>
       <c r="F27">
-        <v>52.7590999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>52.759099900000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2278,13 +2656,13 @@
         <v>7779804202</v>
       </c>
       <c r="E28">
-        <v>-1.6916195</v>
+        <v>-1.6916195000000001</v>
       </c>
       <c r="F28">
-        <v>52.6338397</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>52.633839700000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -2298,13 +2676,13 @@
         <v>1785244499</v>
       </c>
       <c r="E29">
-        <v>-2.1144449</v>
+        <v>-2.1144449000000001</v>
       </c>
       <c r="F29">
-        <v>52.8065874</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>52.806587399999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -2321,10 +2699,10 @@
         <v>-1.8966893</v>
       </c>
       <c r="F30">
-        <v>52.4819713</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>52.481971299999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2344,7 +2722,7 @@
         <v>52.3076711</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -2361,10 +2739,10 @@
         <v>-1.886539</v>
       </c>
       <c r="F32">
-        <v>52.4483263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>52.448326299999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -2378,13 +2756,13 @@
         <v>1613769620</v>
       </c>
       <c r="E33">
-        <v>-2.1509398</v>
+        <v>-2.1509398000000002</v>
       </c>
       <c r="F33">
-        <v>53.3955083</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>53.395508300000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2398,13 +2776,13 @@
         <v>1612477735</v>
       </c>
       <c r="E34">
-        <v>-2.2327823</v>
+        <v>-2.2327823000000002</v>
       </c>
       <c r="F34">
-        <v>53.4822289</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>53.482228900000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2418,13 +2796,13 @@
         <v>1613396116</v>
       </c>
       <c r="E35">
-        <v>-2.09218</v>
+        <v>-2.0921799999999999</v>
       </c>
       <c r="F35">
-        <v>53.48823</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>53.488230000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -2438,13 +2816,13 @@
         <v>1613832740</v>
       </c>
       <c r="E36">
-        <v>-2.15569</v>
+        <v>-2.1556899999999999</v>
       </c>
       <c r="F36">
-        <v>53.41321</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>53.413209999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -2458,13 +2836,13 @@
         <v>7982232437</v>
       </c>
       <c r="E37">
-        <v>-2.2362527</v>
+        <v>-2.2362527000000001</v>
       </c>
       <c r="F37">
-        <v>53.4826717</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>53.482671699999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -2481,10 +2859,10 @@
         <v>-2.3004699</v>
       </c>
       <c r="F38">
-        <v>53.59381</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>53.593809999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -2501,10 +2879,10 @@
         <v>-2.42916</v>
       </c>
       <c r="F39">
-        <v>53.58008</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>53.580080000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -2518,13 +2896,13 @@
         <v>1616378050</v>
       </c>
       <c r="E40">
-        <v>-2.2353791</v>
+        <v>-2.2353790999999998</v>
       </c>
       <c r="F40">
-        <v>53.4822505</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>53.482250499999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -2541,7 +2919,7 @@
         <v>53.4253523</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2555,13 +2933,13 @@
         <v>1612364445</v>
       </c>
       <c r="E42">
-        <v>-2.2343687</v>
+        <v>-2.2343687000000001</v>
       </c>
       <c r="F42">
         <v>53.4809786</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -2575,10 +2953,10 @@
         <v>-2.294346</v>
       </c>
       <c r="F43">
-        <v>53.5936894</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>53.593689400000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2592,13 +2970,13 @@
         <v>7469499695</v>
       </c>
       <c r="E44">
-        <v>-2.9895349</v>
+        <v>-2.9895349000000002</v>
       </c>
       <c r="F44">
-        <v>53.409997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>53.409996999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -2612,13 +2990,13 @@
         <v>7982232437</v>
       </c>
       <c r="E45">
-        <v>-2.9869992</v>
+        <v>-2.9869992000000001</v>
       </c>
       <c r="F45">
-        <v>53.4063329</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>53.406332900000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -2632,13 +3010,13 @@
         <v>1515139271</v>
       </c>
       <c r="E46">
-        <v>-3.00308</v>
+        <v>-3.0030800000000002</v>
       </c>
       <c r="F46">
         <v>53.34948</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -2652,13 +3030,13 @@
         <v>1513451139</v>
       </c>
       <c r="E47">
-        <v>-3.0116</v>
+        <v>-3.0116000000000001</v>
       </c>
       <c r="F47">
-        <v>53.39647</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>53.396470000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2672,13 +3050,13 @@
         <v>1517071491</v>
       </c>
       <c r="E48">
-        <v>-2.9775587</v>
+        <v>-2.9775586999999999</v>
       </c>
       <c r="F48">
-        <v>53.4025461</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>53.402546100000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -2692,13 +3070,13 @@
         <v>7802417103</v>
       </c>
       <c r="E49">
-        <v>-2.970515</v>
+        <v>-2.9705149999999998</v>
       </c>
       <c r="F49">
-        <v>53.4108526</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>53.410852599999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -2715,10 +3093,10 @@
         <v>-1.7892135</v>
       </c>
       <c r="F50">
-        <v>53.8382587</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>53.838258699999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -2732,13 +3110,13 @@
         <v>1132450822</v>
       </c>
       <c r="E51">
-        <v>-1.5413695</v>
+        <v>-1.5413695000000001</v>
       </c>
       <c r="F51">
-        <v>53.7965135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>53.796513500000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -2752,13 +3130,13 @@
         <v>1132559966</v>
       </c>
       <c r="E52">
-        <v>-1.661358</v>
+        <v>-1.6613579999999999</v>
       </c>
       <c r="F52">
-        <v>53.7970466</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>53.797046600000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -2772,13 +3150,13 @@
         <v>1977734857</v>
       </c>
       <c r="E53">
-        <v>-1.3514246</v>
+        <v>-1.3514246000000001</v>
       </c>
       <c r="F53">
-        <v>53.7268876</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>53.726887599999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -2792,13 +3170,13 @@
         <v>7401087502</v>
       </c>
       <c r="E54">
-        <v>-1.661358</v>
+        <v>-1.6613579999999999</v>
       </c>
       <c r="F54">
-        <v>53.7970466</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>53.797046600000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -2815,10 +3193,10 @@
         <v>-1.469484</v>
       </c>
       <c r="F55">
-        <v>53.3740783</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>53.374078300000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -2829,13 +3207,13 @@
         <v>355</v>
       </c>
       <c r="E56">
-        <v>-1.3555299</v>
+        <v>-1.3555299000000001</v>
       </c>
       <c r="F56">
-        <v>53.43292</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>53.432920000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -2849,13 +3227,13 @@
         <v>7982232437</v>
       </c>
       <c r="E57">
-        <v>-1.4730061</v>
+        <v>-1.4730061000000001</v>
       </c>
       <c r="F57">
-        <v>53.3763051</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>53.376305100000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -2875,7 +3253,7 @@
         <v>53.2362684</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -2889,13 +3267,13 @@
         <v>1709320618</v>
       </c>
       <c r="E59">
-        <v>-1.3554755</v>
+        <v>-1.3554755000000001</v>
       </c>
       <c r="F59">
-        <v>53.4306602</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>53.430660199999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -2909,13 +3287,13 @@
         <v>1142634168</v>
       </c>
       <c r="E60">
-        <v>-1.4677542</v>
+        <v>-1.4677541999999999</v>
       </c>
       <c r="F60">
-        <v>53.3820007</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>53.382000699999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -2932,10 +3310,10 @@
         <v>-1.4269923</v>
       </c>
       <c r="F61">
-        <v>53.2363624</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>53.236362399999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -2949,13 +3327,13 @@
         <v>7598414040</v>
       </c>
       <c r="E62">
-        <v>-1.4734598</v>
+        <v>-1.4734598000000001</v>
       </c>
       <c r="F62">
-        <v>53.3743974</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>53.374397399999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -2969,13 +3347,13 @@
         <v>1142471444</v>
       </c>
       <c r="E63">
-        <v>-1.352385</v>
+        <v>-1.3523849999999999</v>
       </c>
       <c r="F63">
-        <v>53.3418766</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>53.341876599999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -2989,13 +3367,13 @@
         <v>1173635959</v>
       </c>
       <c r="E64">
-        <v>-2.5166807</v>
+        <v>-2.5166807000000002</v>
       </c>
       <c r="F64">
-        <v>51.4487401</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>51.448740100000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -3012,10 +3390,10 @@
         <v>-2.5896379</v>
       </c>
       <c r="F65">
-        <v>51.4795511</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>51.479551100000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -3026,13 +3404,13 @@
         <v>365</v>
       </c>
       <c r="E66">
-        <v>-2.58985</v>
+        <v>-2.5898500000000002</v>
       </c>
       <c r="F66">
-        <v>51.45703</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>51.457030000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -3046,10 +3424,10 @@
         <v>-2.5074014</v>
       </c>
       <c r="F67">
-        <v>51.4809782</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>51.480978200000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -3063,13 +3441,13 @@
         <v>1179276564</v>
       </c>
       <c r="E68">
-        <v>-2.5935187</v>
+        <v>-2.5935187000000002</v>
       </c>
       <c r="F68">
-        <v>51.4541746</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>51.454174600000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -3086,10 +3464,10 @@
         <v>-2.6083794</v>
       </c>
       <c r="F69">
-        <v>51.4563947</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>51.456394699999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -3103,13 +3481,13 @@
         <v>1179600999</v>
       </c>
       <c r="E70">
-        <v>-2.50862</v>
+        <v>-2.5086200000000001</v>
       </c>
       <c r="F70">
         <v>51.46246</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -3123,13 +3501,13 @@
         <v>1225667024</v>
       </c>
       <c r="E71">
-        <v>-2.3753756</v>
+        <v>-2.3753755999999999</v>
       </c>
       <c r="F71">
-        <v>51.3814871</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>51.381487100000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -3149,7 +3527,7 @@
         <v>54.9073779</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -3160,13 +3538,13 @@
         <v>372</v>
       </c>
       <c r="E73">
-        <v>-1.5778624</v>
+        <v>-1.5778624000000001</v>
       </c>
       <c r="F73">
-        <v>54.8935896</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>54.893589599999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -3183,10 +3561,10 @@
         <v>-1.4434212</v>
       </c>
       <c r="F74">
-        <v>55.0421334</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>55.042133399999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>44</v>
       </c>
@@ -3206,7 +3584,7 @@
         <v>54.9708726</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -3223,10 +3601,10 @@
         <v>-1.45052</v>
       </c>
       <c r="F76">
-        <v>55.00957</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>55.009569999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -3240,13 +3618,13 @@
         <v>1914473663</v>
       </c>
       <c r="E77">
-        <v>-1.6152227</v>
+        <v>-1.6152226999999999</v>
       </c>
       <c r="F77">
         <v>54.9709444</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -3266,7 +3644,7 @@
         <v>54.9708726</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -3283,10 +3661,10 @@
         <v>-1.1490334</v>
       </c>
       <c r="F79">
-        <v>52.9588238</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>52.958823799999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -3300,13 +3678,13 @@
         <v>7379266848</v>
       </c>
       <c r="E80">
-        <v>-1.197402</v>
+        <v>-1.1974020000000001</v>
       </c>
       <c r="F80">
-        <v>53.001543</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>53.001542999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -3323,10 +3701,10 @@
         <v>-1.1518647</v>
       </c>
       <c r="F81">
-        <v>52.9524187</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>52.952418700000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -3340,13 +3718,13 @@
         <v>7456709997</v>
       </c>
       <c r="E82">
-        <v>-1.1489572</v>
+        <v>-1.1489571999999999</v>
       </c>
       <c r="F82">
         <v>52.9554829</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -3363,10 +3741,10 @@
         <v>-1.2860236</v>
       </c>
       <c r="F83">
-        <v>52.9286108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>52.928610800000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -3383,10 +3761,10 @@
         <v>-1.1527247</v>
       </c>
       <c r="F84">
-        <v>52.9540327</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>52.954032699999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -3400,13 +3778,13 @@
         <v>1158048267</v>
       </c>
       <c r="E85">
-        <v>-1.142259</v>
+        <v>-1.1422589999999999</v>
       </c>
       <c r="F85">
-        <v>52.9450624</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>52.945062399999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -3426,7 +3804,7 @@
         <v>52.9522701</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -3440,13 +3818,13 @@
         <v>450</v>
       </c>
       <c r="E87">
-        <v>-1.1465243</v>
+        <v>-1.1465243000000001</v>
       </c>
       <c r="F87">
-        <v>52.9477062</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>52.947706199999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -3457,13 +3835,13 @@
         <v>386</v>
       </c>
       <c r="E88">
-        <v>-1.1339189</v>
+        <v>-1.1339189000000001</v>
       </c>
       <c r="F88">
-        <v>52.6354384</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>52.635438399999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -3483,7 +3861,7 @@
         <v>52.6353644</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -3497,13 +3875,13 @@
         <v>1162533954</v>
       </c>
       <c r="E90">
-        <v>-1.1296858</v>
+        <v>-1.1296858000000001</v>
       </c>
       <c r="F90">
-        <v>52.6395593</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>52.639559300000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -3514,13 +3892,13 @@
         <v>389</v>
       </c>
       <c r="E91">
-        <v>-1.1337775</v>
+        <v>-1.1337775000000001</v>
       </c>
       <c r="F91">
-        <v>52.635432</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>52.635432000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -3537,10 +3915,10 @@
         <v>-1.3815439</v>
       </c>
       <c r="F92">
-        <v>50.8972319</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>50.897231900000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -3557,7 +3935,7 @@
         <v>50.914628</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -3574,10 +3952,10 @@
         <v>-1.4030935</v>
       </c>
       <c r="F94">
-        <v>50.9029384</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>50.902938399999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -3591,13 +3969,13 @@
         <v>2380630701</v>
       </c>
       <c r="E95">
-        <v>-1.40569</v>
+        <v>-1.4056900000000001</v>
       </c>
       <c r="F95">
-        <v>50.9058295</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>50.905829500000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -3611,13 +3989,13 @@
         <v>2392668305</v>
       </c>
       <c r="E96">
-        <v>-1.0791</v>
+        <v>-1.0790999999999999</v>
       </c>
       <c r="F96">
         <v>50.81729</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -3631,13 +4009,13 @@
         <v>2392986399</v>
       </c>
       <c r="E97">
-        <v>-1.0879673</v>
+        <v>-1.0879673000000001</v>
       </c>
       <c r="F97">
         <v>50.7902998</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -3651,13 +4029,13 @@
         <v>2393810817</v>
       </c>
       <c r="E98">
-        <v>-0.9827777</v>
+        <v>-0.98277769999999998</v>
       </c>
       <c r="F98">
-        <v>50.8523705</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>50.852370499999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -3671,13 +4049,13 @@
         <v>7835061065</v>
       </c>
       <c r="E99">
-        <v>-1.03374</v>
+        <v>-1.0337400000000001</v>
       </c>
       <c r="F99">
-        <v>50.88051</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>50.880510000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -3697,7 +4075,7 @@
         <v>52.9207252</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -3708,13 +4086,13 @@
         <v>399</v>
       </c>
       <c r="E101">
-        <v>-1.4665615</v>
+        <v>-1.4665615000000001</v>
       </c>
       <c r="F101">
-        <v>52.9280999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>52.928099899999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -3731,10 +4109,10 @@
         <v>-1.4760593</v>
       </c>
       <c r="F102">
-        <v>52.9196639</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>52.919663900000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -3751,10 +4129,10 @@
         <v>-1.4729402</v>
       </c>
       <c r="F103">
-        <v>52.9195932</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>52.919593200000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -3768,13 +4146,13 @@
         <v>7956288447</v>
       </c>
       <c r="E104">
-        <v>-2.2288306</v>
+        <v>-2.2288306000000002</v>
       </c>
       <c r="F104">
-        <v>53.0108026</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>53.010802599999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -3785,13 +4163,13 @@
         <v>403</v>
       </c>
       <c r="E105">
-        <v>-2.1759164</v>
+        <v>-2.1759164000000002</v>
       </c>
       <c r="F105">
-        <v>53.0273384</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>53.027338399999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -3805,13 +4183,13 @@
         <v>7562134081</v>
       </c>
       <c r="E106">
-        <v>-2.1758</v>
+        <v>-2.1758000000000002</v>
       </c>
       <c r="F106">
-        <v>53.0265</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>53.026499999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -3825,13 +4203,13 @@
         <v>1782279294</v>
       </c>
       <c r="E107">
-        <v>-2.17619</v>
+        <v>-2.1761900000000001</v>
       </c>
       <c r="F107">
-        <v>53.02592</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>53.025919999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -3848,10 +4226,10 @@
         <v>-1.2618087</v>
       </c>
       <c r="F108">
-        <v>51.754346</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>51.754345999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -3862,13 +4240,13 @@
         <v>407</v>
       </c>
       <c r="E109">
-        <v>-1.9843961</v>
+        <v>-1.9843961000000001</v>
       </c>
       <c r="F109">
-        <v>50.7120759</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>50.712075900000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -3879,13 +4257,13 @@
         <v>408</v>
       </c>
       <c r="E110">
-        <v>-1.86316</v>
+        <v>-1.8631599999999999</v>
       </c>
       <c r="F110">
-        <v>50.74064</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>50.740639999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -3896,13 +4274,13 @@
         <v>409</v>
       </c>
       <c r="E111">
-        <v>-1.8404804</v>
+        <v>-1.8404803999999999</v>
       </c>
       <c r="F111">
-        <v>50.7265837</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>50.726583699999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -3922,7 +4300,7 @@
         <v>50.7380019</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -3936,13 +4314,13 @@
         <v>1305779117</v>
       </c>
       <c r="E113">
-        <v>-2.4532438</v>
+        <v>-2.4532438000000001</v>
       </c>
       <c r="F113">
-        <v>50.6146169</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>50.614616900000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -3956,13 +4334,13 @@
         <v>1772356930</v>
       </c>
       <c r="E114">
-        <v>-2.6926144</v>
+        <v>-2.6926144000000001</v>
       </c>
       <c r="F114">
-        <v>53.7584505</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>53.758450500000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -3976,13 +4354,13 @@
         <v>1772230689</v>
       </c>
       <c r="E115">
-        <v>-2.6926144</v>
+        <v>-2.6926144000000001</v>
       </c>
       <c r="F115">
-        <v>53.7584505</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>53.758450500000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -3996,13 +4374,13 @@
         <v>7437721515</v>
       </c>
       <c r="E116">
-        <v>0.4453869</v>
+        <v>0.44538689999999997</v>
       </c>
       <c r="F116">
-        <v>51.6006354</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>51.600635400000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -4016,13 +4394,13 @@
         <v>1702868040</v>
       </c>
       <c r="E117">
-        <v>0.6541417</v>
+        <v>0.65414170000000005</v>
       </c>
       <c r="F117">
         <v>51.6041302</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -4039,10 +4417,10 @@
         <v>-0.1374378</v>
       </c>
       <c r="F118">
-        <v>50.8326484</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>50.832648399999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>120</v>
       </c>
@@ -4059,10 +4437,10 @@
         <v>-0.1731039</v>
       </c>
       <c r="F119">
-        <v>50.8309508</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>50.830950799999997</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -4073,13 +4451,13 @@
         <v>417</v>
       </c>
       <c r="E120">
-        <v>-0.1353381</v>
+        <v>-0.13533809999999999</v>
       </c>
       <c r="F120">
-        <v>50.831463</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>50.831462999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -4093,13 +4471,13 @@
         <v>7940104668</v>
       </c>
       <c r="E121">
-        <v>-4.2825449</v>
+        <v>-4.2825449000000004</v>
       </c>
       <c r="F121">
         <v>55.8817345</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -4110,13 +4488,13 @@
         <v>419</v>
       </c>
       <c r="E122">
-        <v>-4.2854404</v>
+        <v>-4.2854403999999997</v>
       </c>
       <c r="F122">
-        <v>55.8261582</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>55.826158200000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -4130,13 +4508,13 @@
         <v>1412483720</v>
       </c>
       <c r="E123">
-        <v>-4.2566328</v>
+        <v>-4.2566328000000002</v>
       </c>
       <c r="F123">
         <v>55.8588278</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -4150,13 +4528,13 @@
         <v>1415529785</v>
       </c>
       <c r="E124">
-        <v>-4.24644</v>
+        <v>-4.2464399999999998</v>
       </c>
       <c r="F124">
-        <v>55.85619</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>55.856189999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -4170,13 +4548,13 @@
         <v>1412213117</v>
       </c>
       <c r="E125">
-        <v>-4.2520034</v>
+        <v>-4.2520034000000004</v>
       </c>
       <c r="F125">
-        <v>55.8592414</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>55.859241400000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -4190,13 +4568,13 @@
         <v>1413870263</v>
       </c>
       <c r="E126">
-        <v>-4.2570987</v>
+        <v>-4.2570987000000002</v>
       </c>
       <c r="F126">
-        <v>55.8590754</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>55.859075400000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -4210,13 +4588,13 @@
         <v>7925423362</v>
       </c>
       <c r="E127">
-        <v>-4.2024787</v>
+        <v>-4.2024787000000003</v>
       </c>
       <c r="F127">
-        <v>55.8545523</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>55.854552300000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -4230,13 +4608,13 @@
         <v>1355681681</v>
       </c>
       <c r="E128">
-        <v>-4.17992</v>
+        <v>-4.1799200000000001</v>
       </c>
       <c r="F128">
-        <v>55.75995</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>55.759950000000003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -4250,13 +4628,13 @@
         <v>1316228222</v>
       </c>
       <c r="E129">
-        <v>-3.1861252</v>
+        <v>-3.1861252000000002</v>
       </c>
       <c r="F129">
-        <v>55.9478479</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>55.947847899999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -4273,10 +4651,10 @@
         <v>-3.1719922</v>
       </c>
       <c r="F130">
-        <v>55.97003</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>55.970030000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>108</v>
       </c>
@@ -4293,10 +4671,10 @@
         <v>-3.1868151</v>
       </c>
       <c r="F131">
-        <v>55.9490015</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>55.949001500000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -4313,10 +4691,10 @@
         <v>-2.1027239</v>
       </c>
       <c r="F132">
-        <v>57.1452664</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>57.145266399999997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -4330,10 +4708,10 @@
         <v>-2.1085501</v>
       </c>
       <c r="F133">
-        <v>57.1436823</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>57.143682300000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -4347,13 +4725,13 @@
         <v>7880724864</v>
       </c>
       <c r="E134">
-        <v>-2.0970504</v>
+        <v>-2.0970504000000001</v>
       </c>
       <c r="F134">
-        <v>57.1473368</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>57.147336799999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -4367,13 +4745,13 @@
         <v>1382644960</v>
       </c>
       <c r="E135">
-        <v>-2.9926791</v>
+        <v>-2.9926791000000001</v>
       </c>
       <c r="F135">
-        <v>56.4597498</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>56.459749799999997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -4390,10 +4768,10 @@
         <v>-3.2000302</v>
       </c>
       <c r="F136">
-        <v>51.4722014</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>51.472201400000003</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -4407,13 +4785,13 @@
         <v>2922809184</v>
       </c>
       <c r="E137">
-        <v>-3.1770229</v>
+        <v>-3.1770228999999999</v>
       </c>
       <c r="F137">
-        <v>51.478881</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+        <v>51.478881000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -4427,10 +4805,10 @@
         <v>-3.177689</v>
       </c>
       <c r="F138">
-        <v>51.4816442</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+        <v>51.481644199999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -4450,7 +4828,7 @@
         <v>51.4808643</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>108</v>
       </c>
@@ -4464,13 +4842,13 @@
         <v>2920228885</v>
       </c>
       <c r="E140">
-        <v>-3.1795386</v>
+        <v>-3.1795385999999999</v>
       </c>
       <c r="F140">
-        <v>51.4813241</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+        <v>51.481324100000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -4484,13 +4862,13 @@
         <v>1792930328</v>
       </c>
       <c r="E141">
-        <v>-3.9425567</v>
+        <v>-3.9425566999999999</v>
       </c>
       <c r="F141">
-        <v>51.622081</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+        <v>51.622081000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -4501,13 +4879,13 @@
         <v>439</v>
       </c>
       <c r="E142">
-        <v>-3.94205</v>
+        <v>-3.9420500000000001</v>
       </c>
       <c r="F142">
-        <v>51.62272</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+        <v>51.622720000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -4518,13 +4896,13 @@
         <v>440</v>
       </c>
       <c r="E143">
-        <v>-3.9456079</v>
+        <v>-3.9456079000000002</v>
       </c>
       <c r="F143">
-        <v>51.6191477</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+        <v>51.619147699999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -4538,13 +4916,13 @@
         <v>1633272507</v>
       </c>
       <c r="E144">
-        <v>-2.9458952</v>
+        <v>-2.9458951999999998</v>
       </c>
       <c r="F144">
-        <v>51.5764119</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+        <v>51.576411899999997</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -4558,13 +4936,13 @@
         <v>7733434239</v>
       </c>
       <c r="E145">
-        <v>-2.9953304</v>
+        <v>-2.9953303999999998</v>
       </c>
       <c r="F145">
-        <v>51.5868622</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+        <v>51.586862199999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -4578,13 +4956,13 @@
         <v>7946781905</v>
       </c>
       <c r="E146">
-        <v>-2.9975365</v>
+        <v>-2.9975364999999998</v>
       </c>
       <c r="F146">
-        <v>51.5888328</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+        <v>51.588832799999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -4598,10 +4976,10 @@
         <v>-2.9965183</v>
       </c>
       <c r="F147">
-        <v>51.5875557</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+        <v>51.587555700000003</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>108</v>
       </c>
@@ -4615,13 +4993,13 @@
         <v>2890438744</v>
       </c>
       <c r="E148">
-        <v>-5.9255281</v>
+        <v>-5.9255281000000002</v>
       </c>
       <c r="F148">
-        <v>54.5993673</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+        <v>54.599367299999997</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -4635,13 +5013,13 @@
         <v>2895430600</v>
       </c>
       <c r="E149">
-        <v>-5.9322722</v>
+        <v>-5.9322721999999999</v>
       </c>
       <c r="F149">
-        <v>54.5981341</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+        <v>54.598134100000003</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -4658,7 +5036,7 @@
         <v>54.5114649</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -4672,13 +5050,13 @@
         <v>2871165071</v>
       </c>
       <c r="E151">
-        <v>-0.0685829</v>
+        <v>-6.8582900000000002E-2</v>
       </c>
       <c r="F151">
-        <v>50.8175657</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+        <v>50.817565700000003</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -4692,10 +5070,590 @@
         <v>7989669331</v>
       </c>
       <c r="E152">
-        <v>-7.3183785</v>
+        <v>-7.3183784999999997</v>
       </c>
       <c r="F152">
-        <v>54.9949256</v>
+        <v>54.994925600000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>451</v>
+      </c>
+      <c r="B153" t="s">
+        <v>452</v>
+      </c>
+      <c r="C153" t="s">
+        <v>453</v>
+      </c>
+      <c r="D153" t="s">
+        <v>454</v>
+      </c>
+      <c r="E153">
+        <v>-2.1008849999999999</v>
+      </c>
+      <c r="F153">
+        <v>57.145773200000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>455</v>
+      </c>
+      <c r="B154" t="s">
+        <v>456</v>
+      </c>
+      <c r="C154" t="s">
+        <v>457</v>
+      </c>
+      <c r="D154" t="s">
+        <v>458</v>
+      </c>
+      <c r="E154">
+        <v>-5.7084953000000001</v>
+      </c>
+      <c r="F154">
+        <v>54.593806899999997</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>459</v>
+      </c>
+      <c r="B155" t="s">
+        <v>460</v>
+      </c>
+      <c r="C155" t="s">
+        <v>461</v>
+      </c>
+      <c r="D155" t="s">
+        <v>462</v>
+      </c>
+      <c r="E155">
+        <v>-4.6257209000000001</v>
+      </c>
+      <c r="F155">
+        <v>55.459632300000003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>463</v>
+      </c>
+      <c r="B156" t="s">
+        <v>464</v>
+      </c>
+      <c r="C156" t="s">
+        <v>465</v>
+      </c>
+      <c r="D156" t="s">
+        <v>466</v>
+      </c>
+      <c r="E156" t="s">
+        <v>467</v>
+      </c>
+      <c r="F156">
+        <v>54.869078000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>468</v>
+      </c>
+      <c r="B157" t="s">
+        <v>469</v>
+      </c>
+      <c r="C157" t="s">
+        <v>470</v>
+      </c>
+      <c r="D157" t="s">
+        <v>471</v>
+      </c>
+      <c r="E157">
+        <v>-6.2733112000000002</v>
+      </c>
+      <c r="F157">
+        <v>54.333819300000002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>472</v>
+      </c>
+      <c r="B158" t="s">
+        <v>473</v>
+      </c>
+      <c r="C158" t="s">
+        <v>474</v>
+      </c>
+      <c r="D158" t="s">
+        <v>475</v>
+      </c>
+      <c r="E158">
+        <v>-1.3390283999999999</v>
+      </c>
+      <c r="F158">
+        <v>53.712392999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>476</v>
+      </c>
+      <c r="B159" t="s">
+        <v>477</v>
+      </c>
+      <c r="C159" t="s">
+        <v>478</v>
+      </c>
+      <c r="D159" t="s">
+        <v>479</v>
+      </c>
+      <c r="E159" t="s">
+        <v>480</v>
+      </c>
+      <c r="F159" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>482</v>
+      </c>
+      <c r="B160" t="s">
+        <v>483</v>
+      </c>
+      <c r="C160" t="s">
+        <v>484</v>
+      </c>
+      <c r="D160" t="s">
+        <v>485</v>
+      </c>
+      <c r="E160">
+        <v>-1.5121424999999999</v>
+      </c>
+      <c r="F160">
+        <v>52.408798900000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>486</v>
+      </c>
+      <c r="B161" t="s">
+        <v>487</v>
+      </c>
+      <c r="C161" t="s">
+        <v>488</v>
+      </c>
+      <c r="D161" t="s">
+        <v>489</v>
+      </c>
+      <c r="E161">
+        <v>-3.6119015999999999</v>
+      </c>
+      <c r="F161">
+        <v>55.0700492</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>490</v>
+      </c>
+      <c r="B162" t="s">
+        <v>491</v>
+      </c>
+      <c r="C162" t="s">
+        <v>492</v>
+      </c>
+      <c r="D162" t="s">
+        <v>493</v>
+      </c>
+      <c r="E162">
+        <v>-2.9726490999999999</v>
+      </c>
+      <c r="F162">
+        <v>56.4599397</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>494</v>
+      </c>
+      <c r="B163" t="s">
+        <v>495</v>
+      </c>
+      <c r="C163" t="s">
+        <v>496</v>
+      </c>
+      <c r="D163" t="s">
+        <v>497</v>
+      </c>
+      <c r="E163">
+        <v>-7.6433115999999997</v>
+      </c>
+      <c r="F163">
+        <v>54.342851500000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>498</v>
+      </c>
+      <c r="B164" t="s">
+        <v>499</v>
+      </c>
+      <c r="C164" t="s">
+        <v>500</v>
+      </c>
+      <c r="D164" t="s">
+        <v>501</v>
+      </c>
+      <c r="E164">
+        <v>-4.2024787000000003</v>
+      </c>
+      <c r="F164">
+        <v>55.854552300000002</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>502</v>
+      </c>
+      <c r="B165" t="s">
+        <v>503</v>
+      </c>
+      <c r="C165" t="s">
+        <v>504</v>
+      </c>
+      <c r="D165" t="s">
+        <v>505</v>
+      </c>
+      <c r="E165">
+        <v>-3.1738385</v>
+      </c>
+      <c r="F165">
+        <v>56.195841899999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>506</v>
+      </c>
+      <c r="B166" t="s">
+        <v>507</v>
+      </c>
+      <c r="C166" t="s">
+        <v>508</v>
+      </c>
+      <c r="D166" t="s">
+        <v>509</v>
+      </c>
+      <c r="E166">
+        <v>-0.33895330000000001</v>
+      </c>
+      <c r="F166">
+        <v>53.741927099999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>510</v>
+      </c>
+      <c r="B167" t="s">
+        <v>511</v>
+      </c>
+      <c r="C167" t="s">
+        <v>512</v>
+      </c>
+      <c r="D167" t="s">
+        <v>513</v>
+      </c>
+      <c r="E167">
+        <v>-3.1572730999999998</v>
+      </c>
+      <c r="F167">
+        <v>56.1100694</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>514</v>
+      </c>
+      <c r="B168" t="s">
+        <v>515</v>
+      </c>
+      <c r="C168" t="s">
+        <v>516</v>
+      </c>
+      <c r="D168" t="s">
+        <v>517</v>
+      </c>
+      <c r="E168">
+        <v>-1.1360967</v>
+      </c>
+      <c r="F168">
+        <v>52.636012399999998</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>518</v>
+      </c>
+      <c r="B169" t="s">
+        <v>519</v>
+      </c>
+      <c r="C169" t="s">
+        <v>520</v>
+      </c>
+      <c r="D169" t="s">
+        <v>521</v>
+      </c>
+      <c r="E169">
+        <v>-6.0509244999999998</v>
+      </c>
+      <c r="F169">
+        <v>54.5121143</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>522</v>
+      </c>
+      <c r="B170" t="s">
+        <v>523</v>
+      </c>
+      <c r="C170" t="s">
+        <v>524</v>
+      </c>
+      <c r="D170" t="s">
+        <v>525</v>
+      </c>
+      <c r="E170" t="s">
+        <v>526</v>
+      </c>
+      <c r="F170">
+        <v>54.989230999999997</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>527</v>
+      </c>
+      <c r="B171" t="s">
+        <v>528</v>
+      </c>
+      <c r="C171" t="s">
+        <v>529</v>
+      </c>
+      <c r="D171" t="s">
+        <v>530</v>
+      </c>
+      <c r="E171">
+        <v>0.5248507</v>
+      </c>
+      <c r="F171">
+        <v>51.2730526</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>531</v>
+      </c>
+      <c r="B172" t="s">
+        <v>532</v>
+      </c>
+      <c r="C172" t="s">
+        <v>533</v>
+      </c>
+      <c r="D172" t="s">
+        <v>534</v>
+      </c>
+      <c r="E172">
+        <v>-2.1102500000000002</v>
+      </c>
+      <c r="F172">
+        <v>52.483499999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>535</v>
+      </c>
+      <c r="B173" t="s">
+        <v>536</v>
+      </c>
+      <c r="C173" t="s">
+        <v>537</v>
+      </c>
+      <c r="D173" t="s">
+        <v>538</v>
+      </c>
+      <c r="E173">
+        <v>-1.2360571</v>
+      </c>
+      <c r="F173">
+        <v>54.5741406</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>539</v>
+      </c>
+      <c r="B174" t="s">
+        <v>540</v>
+      </c>
+      <c r="C174" t="s">
+        <v>541</v>
+      </c>
+      <c r="D174" t="s">
+        <v>542</v>
+      </c>
+      <c r="E174">
+        <v>-3.4316024999999999</v>
+      </c>
+      <c r="F174">
+        <v>56.395848299999997</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>543</v>
+      </c>
+      <c r="B175" t="s">
+        <v>544</v>
+      </c>
+      <c r="C175" t="s">
+        <v>545</v>
+      </c>
+      <c r="D175" t="s">
+        <v>546</v>
+      </c>
+      <c r="E175">
+        <v>-1.9798279000000001</v>
+      </c>
+      <c r="F175">
+        <v>50.718252300000003</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>547</v>
+      </c>
+      <c r="B176" t="s">
+        <v>548</v>
+      </c>
+      <c r="C176" t="s">
+        <v>549</v>
+      </c>
+      <c r="D176" t="s">
+        <v>550</v>
+      </c>
+      <c r="E176">
+        <v>-6.6545426000000001</v>
+      </c>
+      <c r="F176">
+        <v>55.207594999999998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>551</v>
+      </c>
+      <c r="B177" t="s">
+        <v>552</v>
+      </c>
+      <c r="C177" t="s">
+        <v>553</v>
+      </c>
+      <c r="D177" t="s">
+        <v>554</v>
+      </c>
+      <c r="E177">
+        <v>-1.0908485999999999</v>
+      </c>
+      <c r="F177">
+        <v>50.801247199999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>555</v>
+      </c>
+      <c r="B178" t="s">
+        <v>556</v>
+      </c>
+      <c r="C178" t="s">
+        <v>557</v>
+      </c>
+      <c r="D178" t="s">
+        <v>558</v>
+      </c>
+      <c r="E178">
+        <v>-1.3511453</v>
+      </c>
+      <c r="F178">
+        <v>53.341519699999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>559</v>
+      </c>
+      <c r="B179" t="s">
+        <v>560</v>
+      </c>
+      <c r="C179" t="s">
+        <v>561</v>
+      </c>
+      <c r="D179" t="s">
+        <v>562</v>
+      </c>
+      <c r="E179">
+        <v>-0.47657369999999999</v>
+      </c>
+      <c r="F179">
+        <v>51.545689600000003</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>563</v>
+      </c>
+      <c r="B180" t="s">
+        <v>564</v>
+      </c>
+      <c r="C180" t="s">
+        <v>565</v>
+      </c>
+      <c r="D180" t="s">
+        <v>566</v>
+      </c>
+      <c r="E180">
+        <v>-2.6291457</v>
+      </c>
+      <c r="F180">
+        <v>53.546581099999997</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>567</v>
+      </c>
+      <c r="B181" t="s">
+        <v>568</v>
+      </c>
+      <c r="C181" t="s">
+        <v>569</v>
+      </c>
+      <c r="D181" t="s">
+        <v>570</v>
+      </c>
+      <c r="E181">
+        <v>-2.2240671999999999</v>
+      </c>
+      <c r="F181">
+        <v>52.193045699999999</v>
       </c>
     </row>
   </sheetData>

--- a/bot.xlsx
+++ b/bot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flame\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550B748A-81C8-4E89-9A1F-D9B541B2AD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979C1953-1A9F-4A06-9B90-7581FDFA8777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="568">
   <si>
     <t>Store Name</t>
   </si>
@@ -1423,9 +1423,6 @@
     <t>BT43 6UF</t>
   </si>
   <si>
-    <t>–6.275023</t>
-  </si>
-  <si>
     <t>Toytown Banbridge</t>
   </si>
   <si>
@@ -1462,9 +1459,6 @@
     <t>BT52 1AN</t>
   </si>
   <si>
-    <t> –6.670251</t>
-  </si>
-  <si>
     <t> 55.131512</t>
   </si>
   <si>
@@ -1598,9 +1592,6 @@
   </si>
   <si>
     <t>BT47 6DF</t>
-  </si>
-  <si>
-    <t>–7.295957</t>
   </si>
   <si>
     <t>Toytown Maidstone</t>
@@ -2102,8 +2093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153:F181"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5149,8 +5140,8 @@
       <c r="D156" t="s">
         <v>466</v>
       </c>
-      <c r="E156" t="s">
-        <v>467</v>
+      <c r="E156">
+        <v>-6.275023</v>
       </c>
       <c r="F156">
         <v>54.869078000000002</v>
@@ -5158,16 +5149,16 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
+        <v>467</v>
+      </c>
+      <c r="B157" t="s">
         <v>468</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>469</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>470</v>
-      </c>
-      <c r="D157" t="s">
-        <v>471</v>
       </c>
       <c r="E157">
         <v>-6.2733112000000002</v>
@@ -5178,16 +5169,16 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
+        <v>471</v>
+      </c>
+      <c r="B158" t="s">
         <v>472</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>473</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>474</v>
-      </c>
-      <c r="D158" t="s">
-        <v>475</v>
       </c>
       <c r="E158">
         <v>-1.3390283999999999</v>
@@ -5198,36 +5189,36 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
+        <v>475</v>
+      </c>
+      <c r="B159" t="s">
         <v>476</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>477</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>478</v>
       </c>
-      <c r="D159" t="s">
+      <c r="E159">
+        <v>-6.6702510000000004</v>
+      </c>
+      <c r="F159" t="s">
         <v>479</v>
-      </c>
-      <c r="E159" t="s">
-        <v>480</v>
-      </c>
-      <c r="F159" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
+        <v>480</v>
+      </c>
+      <c r="B160" t="s">
+        <v>481</v>
+      </c>
+      <c r="C160" t="s">
         <v>482</v>
       </c>
-      <c r="B160" t="s">
+      <c r="D160" t="s">
         <v>483</v>
-      </c>
-      <c r="C160" t="s">
-        <v>484</v>
-      </c>
-      <c r="D160" t="s">
-        <v>485</v>
       </c>
       <c r="E160">
         <v>-1.5121424999999999</v>
@@ -5238,16 +5229,16 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
+        <v>484</v>
+      </c>
+      <c r="B161" t="s">
+        <v>485</v>
+      </c>
+      <c r="C161" t="s">
         <v>486</v>
       </c>
-      <c r="B161" t="s">
+      <c r="D161" t="s">
         <v>487</v>
-      </c>
-      <c r="C161" t="s">
-        <v>488</v>
-      </c>
-      <c r="D161" t="s">
-        <v>489</v>
       </c>
       <c r="E161">
         <v>-3.6119015999999999</v>
@@ -5258,16 +5249,16 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
+        <v>488</v>
+      </c>
+      <c r="B162" t="s">
+        <v>489</v>
+      </c>
+      <c r="C162" t="s">
         <v>490</v>
       </c>
-      <c r="B162" t="s">
+      <c r="D162" t="s">
         <v>491</v>
-      </c>
-      <c r="C162" t="s">
-        <v>492</v>
-      </c>
-      <c r="D162" t="s">
-        <v>493</v>
       </c>
       <c r="E162">
         <v>-2.9726490999999999</v>
@@ -5278,16 +5269,16 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
+        <v>492</v>
+      </c>
+      <c r="B163" t="s">
+        <v>493</v>
+      </c>
+      <c r="C163" t="s">
         <v>494</v>
       </c>
-      <c r="B163" t="s">
+      <c r="D163" t="s">
         <v>495</v>
-      </c>
-      <c r="C163" t="s">
-        <v>496</v>
-      </c>
-      <c r="D163" t="s">
-        <v>497</v>
       </c>
       <c r="E163">
         <v>-7.6433115999999997</v>
@@ -5298,16 +5289,16 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
+        <v>496</v>
+      </c>
+      <c r="B164" t="s">
+        <v>497</v>
+      </c>
+      <c r="C164" t="s">
         <v>498</v>
       </c>
-      <c r="B164" t="s">
+      <c r="D164" t="s">
         <v>499</v>
-      </c>
-      <c r="C164" t="s">
-        <v>500</v>
-      </c>
-      <c r="D164" t="s">
-        <v>501</v>
       </c>
       <c r="E164">
         <v>-4.2024787000000003</v>
@@ -5318,16 +5309,16 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
+        <v>500</v>
+      </c>
+      <c r="B165" t="s">
+        <v>501</v>
+      </c>
+      <c r="C165" t="s">
         <v>502</v>
       </c>
-      <c r="B165" t="s">
+      <c r="D165" t="s">
         <v>503</v>
-      </c>
-      <c r="C165" t="s">
-        <v>504</v>
-      </c>
-      <c r="D165" t="s">
-        <v>505</v>
       </c>
       <c r="E165">
         <v>-3.1738385</v>
@@ -5338,16 +5329,16 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
+        <v>504</v>
+      </c>
+      <c r="B166" t="s">
+        <v>505</v>
+      </c>
+      <c r="C166" t="s">
         <v>506</v>
       </c>
-      <c r="B166" t="s">
+      <c r="D166" t="s">
         <v>507</v>
-      </c>
-      <c r="C166" t="s">
-        <v>508</v>
-      </c>
-      <c r="D166" t="s">
-        <v>509</v>
       </c>
       <c r="E166">
         <v>-0.33895330000000001</v>
@@ -5358,16 +5349,16 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
+        <v>508</v>
+      </c>
+      <c r="B167" t="s">
+        <v>509</v>
+      </c>
+      <c r="C167" t="s">
         <v>510</v>
       </c>
-      <c r="B167" t="s">
+      <c r="D167" t="s">
         <v>511</v>
-      </c>
-      <c r="C167" t="s">
-        <v>512</v>
-      </c>
-      <c r="D167" t="s">
-        <v>513</v>
       </c>
       <c r="E167">
         <v>-3.1572730999999998</v>
@@ -5378,16 +5369,16 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
+        <v>512</v>
+      </c>
+      <c r="B168" t="s">
+        <v>513</v>
+      </c>
+      <c r="C168" t="s">
         <v>514</v>
       </c>
-      <c r="B168" t="s">
+      <c r="D168" t="s">
         <v>515</v>
-      </c>
-      <c r="C168" t="s">
-        <v>516</v>
-      </c>
-      <c r="D168" t="s">
-        <v>517</v>
       </c>
       <c r="E168">
         <v>-1.1360967</v>
@@ -5398,16 +5389,16 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
+        <v>516</v>
+      </c>
+      <c r="B169" t="s">
+        <v>517</v>
+      </c>
+      <c r="C169" t="s">
         <v>518</v>
       </c>
-      <c r="B169" t="s">
+      <c r="D169" t="s">
         <v>519</v>
-      </c>
-      <c r="C169" t="s">
-        <v>520</v>
-      </c>
-      <c r="D169" t="s">
-        <v>521</v>
       </c>
       <c r="E169">
         <v>-6.0509244999999998</v>
@@ -5418,19 +5409,19 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
+        <v>520</v>
+      </c>
+      <c r="B170" t="s">
+        <v>521</v>
+      </c>
+      <c r="C170" t="s">
         <v>522</v>
       </c>
-      <c r="B170" t="s">
+      <c r="D170" t="s">
         <v>523</v>
       </c>
-      <c r="C170" t="s">
-        <v>524</v>
-      </c>
-      <c r="D170" t="s">
-        <v>525</v>
-      </c>
-      <c r="E170" t="s">
-        <v>526</v>
+      <c r="E170">
+        <v>-7.2959569999999996</v>
       </c>
       <c r="F170">
         <v>54.989230999999997</v>
@@ -5438,16 +5429,16 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
+        <v>524</v>
+      </c>
+      <c r="B171" t="s">
+        <v>525</v>
+      </c>
+      <c r="C171" t="s">
+        <v>526</v>
+      </c>
+      <c r="D171" t="s">
         <v>527</v>
-      </c>
-      <c r="B171" t="s">
-        <v>528</v>
-      </c>
-      <c r="C171" t="s">
-        <v>529</v>
-      </c>
-      <c r="D171" t="s">
-        <v>530</v>
       </c>
       <c r="E171">
         <v>0.5248507</v>
@@ -5458,16 +5449,16 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
+        <v>528</v>
+      </c>
+      <c r="B172" t="s">
+        <v>529</v>
+      </c>
+      <c r="C172" t="s">
+        <v>530</v>
+      </c>
+      <c r="D172" t="s">
         <v>531</v>
-      </c>
-      <c r="B172" t="s">
-        <v>532</v>
-      </c>
-      <c r="C172" t="s">
-        <v>533</v>
-      </c>
-      <c r="D172" t="s">
-        <v>534</v>
       </c>
       <c r="E172">
         <v>-2.1102500000000002</v>
@@ -5478,16 +5469,16 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
+        <v>532</v>
+      </c>
+      <c r="B173" t="s">
+        <v>533</v>
+      </c>
+      <c r="C173" t="s">
+        <v>534</v>
+      </c>
+      <c r="D173" t="s">
         <v>535</v>
-      </c>
-      <c r="B173" t="s">
-        <v>536</v>
-      </c>
-      <c r="C173" t="s">
-        <v>537</v>
-      </c>
-      <c r="D173" t="s">
-        <v>538</v>
       </c>
       <c r="E173">
         <v>-1.2360571</v>
@@ -5498,16 +5489,16 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
+        <v>536</v>
+      </c>
+      <c r="B174" t="s">
+        <v>537</v>
+      </c>
+      <c r="C174" t="s">
+        <v>538</v>
+      </c>
+      <c r="D174" t="s">
         <v>539</v>
-      </c>
-      <c r="B174" t="s">
-        <v>540</v>
-      </c>
-      <c r="C174" t="s">
-        <v>541</v>
-      </c>
-      <c r="D174" t="s">
-        <v>542</v>
       </c>
       <c r="E174">
         <v>-3.4316024999999999</v>
@@ -5518,16 +5509,16 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
+        <v>540</v>
+      </c>
+      <c r="B175" t="s">
+        <v>541</v>
+      </c>
+      <c r="C175" t="s">
+        <v>542</v>
+      </c>
+      <c r="D175" t="s">
         <v>543</v>
-      </c>
-      <c r="B175" t="s">
-        <v>544</v>
-      </c>
-      <c r="C175" t="s">
-        <v>545</v>
-      </c>
-      <c r="D175" t="s">
-        <v>546</v>
       </c>
       <c r="E175">
         <v>-1.9798279000000001</v>
@@ -5538,16 +5529,16 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
+        <v>544</v>
+      </c>
+      <c r="B176" t="s">
+        <v>545</v>
+      </c>
+      <c r="C176" t="s">
+        <v>546</v>
+      </c>
+      <c r="D176" t="s">
         <v>547</v>
-      </c>
-      <c r="B176" t="s">
-        <v>548</v>
-      </c>
-      <c r="C176" t="s">
-        <v>549</v>
-      </c>
-      <c r="D176" t="s">
-        <v>550</v>
       </c>
       <c r="E176">
         <v>-6.6545426000000001</v>
@@ -5558,16 +5549,16 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
+        <v>548</v>
+      </c>
+      <c r="B177" t="s">
+        <v>549</v>
+      </c>
+      <c r="C177" t="s">
+        <v>550</v>
+      </c>
+      <c r="D177" t="s">
         <v>551</v>
-      </c>
-      <c r="B177" t="s">
-        <v>552</v>
-      </c>
-      <c r="C177" t="s">
-        <v>553</v>
-      </c>
-      <c r="D177" t="s">
-        <v>554</v>
       </c>
       <c r="E177">
         <v>-1.0908485999999999</v>
@@ -5578,16 +5569,16 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
+        <v>552</v>
+      </c>
+      <c r="B178" t="s">
+        <v>553</v>
+      </c>
+      <c r="C178" t="s">
+        <v>554</v>
+      </c>
+      <c r="D178" t="s">
         <v>555</v>
-      </c>
-      <c r="B178" t="s">
-        <v>556</v>
-      </c>
-      <c r="C178" t="s">
-        <v>557</v>
-      </c>
-      <c r="D178" t="s">
-        <v>558</v>
       </c>
       <c r="E178">
         <v>-1.3511453</v>
@@ -5598,16 +5589,16 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
+        <v>556</v>
+      </c>
+      <c r="B179" t="s">
+        <v>557</v>
+      </c>
+      <c r="C179" t="s">
+        <v>558</v>
+      </c>
+      <c r="D179" t="s">
         <v>559</v>
-      </c>
-      <c r="B179" t="s">
-        <v>560</v>
-      </c>
-      <c r="C179" t="s">
-        <v>561</v>
-      </c>
-      <c r="D179" t="s">
-        <v>562</v>
       </c>
       <c r="E179">
         <v>-0.47657369999999999</v>
@@ -5618,16 +5609,16 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
+        <v>560</v>
+      </c>
+      <c r="B180" t="s">
+        <v>561</v>
+      </c>
+      <c r="C180" t="s">
+        <v>562</v>
+      </c>
+      <c r="D180" t="s">
         <v>563</v>
-      </c>
-      <c r="B180" t="s">
-        <v>564</v>
-      </c>
-      <c r="C180" t="s">
-        <v>565</v>
-      </c>
-      <c r="D180" t="s">
-        <v>566</v>
       </c>
       <c r="E180">
         <v>-2.6291457</v>
@@ -5638,16 +5629,16 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
+        <v>564</v>
+      </c>
+      <c r="B181" t="s">
+        <v>565</v>
+      </c>
+      <c r="C181" t="s">
+        <v>566</v>
+      </c>
+      <c r="D181" t="s">
         <v>567</v>
-      </c>
-      <c r="B181" t="s">
-        <v>568</v>
-      </c>
-      <c r="C181" t="s">
-        <v>569</v>
-      </c>
-      <c r="D181" t="s">
-        <v>570</v>
       </c>
       <c r="E181">
         <v>-2.2240671999999999</v>

--- a/bot.xlsx
+++ b/bot.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flame\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979C1953-1A9F-4A06-9B90-7581FDFA8777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E9B2B9-4132-4662-B2E8-94C62F160DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2093,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="E157" sqref="E157"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153:D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5075,10 +5088,10 @@
         <v>452</v>
       </c>
       <c r="C153" t="s">
+        <v>454</v>
+      </c>
+      <c r="D153" t="s">
         <v>453</v>
-      </c>
-      <c r="D153" t="s">
-        <v>454</v>
       </c>
       <c r="E153">
         <v>-2.1008849999999999</v>
@@ -5095,10 +5108,10 @@
         <v>456</v>
       </c>
       <c r="C154" t="s">
+        <v>458</v>
+      </c>
+      <c r="D154" t="s">
         <v>457</v>
-      </c>
-      <c r="D154" t="s">
-        <v>458</v>
       </c>
       <c r="E154">
         <v>-5.7084953000000001</v>
@@ -5115,10 +5128,10 @@
         <v>460</v>
       </c>
       <c r="C155" t="s">
+        <v>462</v>
+      </c>
+      <c r="D155" t="s">
         <v>461</v>
-      </c>
-      <c r="D155" t="s">
-        <v>462</v>
       </c>
       <c r="E155">
         <v>-4.6257209000000001</v>
@@ -5135,10 +5148,10 @@
         <v>464</v>
       </c>
       <c r="C156" t="s">
+        <v>466</v>
+      </c>
+      <c r="D156" t="s">
         <v>465</v>
-      </c>
-      <c r="D156" t="s">
-        <v>466</v>
       </c>
       <c r="E156">
         <v>-6.275023</v>
@@ -5155,10 +5168,10 @@
         <v>468</v>
       </c>
       <c r="C157" t="s">
+        <v>470</v>
+      </c>
+      <c r="D157" t="s">
         <v>469</v>
-      </c>
-      <c r="D157" t="s">
-        <v>470</v>
       </c>
       <c r="E157">
         <v>-6.2733112000000002</v>
@@ -5175,10 +5188,10 @@
         <v>472</v>
       </c>
       <c r="C158" t="s">
+        <v>474</v>
+      </c>
+      <c r="D158" t="s">
         <v>473</v>
-      </c>
-      <c r="D158" t="s">
-        <v>474</v>
       </c>
       <c r="E158">
         <v>-1.3390283999999999</v>
@@ -5195,10 +5208,10 @@
         <v>476</v>
       </c>
       <c r="C159" t="s">
+        <v>478</v>
+      </c>
+      <c r="D159" t="s">
         <v>477</v>
-      </c>
-      <c r="D159" t="s">
-        <v>478</v>
       </c>
       <c r="E159">
         <v>-6.6702510000000004</v>
@@ -5215,10 +5228,10 @@
         <v>481</v>
       </c>
       <c r="C160" t="s">
+        <v>483</v>
+      </c>
+      <c r="D160" t="s">
         <v>482</v>
-      </c>
-      <c r="D160" t="s">
-        <v>483</v>
       </c>
       <c r="E160">
         <v>-1.5121424999999999</v>
@@ -5235,10 +5248,10 @@
         <v>485</v>
       </c>
       <c r="C161" t="s">
+        <v>487</v>
+      </c>
+      <c r="D161" t="s">
         <v>486</v>
-      </c>
-      <c r="D161" t="s">
-        <v>487</v>
       </c>
       <c r="E161">
         <v>-3.6119015999999999</v>
@@ -5255,10 +5268,10 @@
         <v>489</v>
       </c>
       <c r="C162" t="s">
+        <v>491</v>
+      </c>
+      <c r="D162" t="s">
         <v>490</v>
-      </c>
-      <c r="D162" t="s">
-        <v>491</v>
       </c>
       <c r="E162">
         <v>-2.9726490999999999</v>
@@ -5275,10 +5288,10 @@
         <v>493</v>
       </c>
       <c r="C163" t="s">
+        <v>495</v>
+      </c>
+      <c r="D163" t="s">
         <v>494</v>
-      </c>
-      <c r="D163" t="s">
-        <v>495</v>
       </c>
       <c r="E163">
         <v>-7.6433115999999997</v>
@@ -5295,10 +5308,10 @@
         <v>497</v>
       </c>
       <c r="C164" t="s">
+        <v>499</v>
+      </c>
+      <c r="D164" t="s">
         <v>498</v>
-      </c>
-      <c r="D164" t="s">
-        <v>499</v>
       </c>
       <c r="E164">
         <v>-4.2024787000000003</v>
@@ -5315,10 +5328,10 @@
         <v>501</v>
       </c>
       <c r="C165" t="s">
+        <v>503</v>
+      </c>
+      <c r="D165" t="s">
         <v>502</v>
-      </c>
-      <c r="D165" t="s">
-        <v>503</v>
       </c>
       <c r="E165">
         <v>-3.1738385</v>
@@ -5335,10 +5348,10 @@
         <v>505</v>
       </c>
       <c r="C166" t="s">
+        <v>507</v>
+      </c>
+      <c r="D166" t="s">
         <v>506</v>
-      </c>
-      <c r="D166" t="s">
-        <v>507</v>
       </c>
       <c r="E166">
         <v>-0.33895330000000001</v>
@@ -5355,10 +5368,10 @@
         <v>509</v>
       </c>
       <c r="C167" t="s">
+        <v>511</v>
+      </c>
+      <c r="D167" t="s">
         <v>510</v>
-      </c>
-      <c r="D167" t="s">
-        <v>511</v>
       </c>
       <c r="E167">
         <v>-3.1572730999999998</v>
@@ -5375,10 +5388,10 @@
         <v>513</v>
       </c>
       <c r="C168" t="s">
+        <v>515</v>
+      </c>
+      <c r="D168" t="s">
         <v>514</v>
-      </c>
-      <c r="D168" t="s">
-        <v>515</v>
       </c>
       <c r="E168">
         <v>-1.1360967</v>
@@ -5395,10 +5408,10 @@
         <v>517</v>
       </c>
       <c r="C169" t="s">
+        <v>519</v>
+      </c>
+      <c r="D169" t="s">
         <v>518</v>
-      </c>
-      <c r="D169" t="s">
-        <v>519</v>
       </c>
       <c r="E169">
         <v>-6.0509244999999998</v>
@@ -5415,10 +5428,10 @@
         <v>521</v>
       </c>
       <c r="C170" t="s">
+        <v>523</v>
+      </c>
+      <c r="D170" t="s">
         <v>522</v>
-      </c>
-      <c r="D170" t="s">
-        <v>523</v>
       </c>
       <c r="E170">
         <v>-7.2959569999999996</v>
@@ -5435,10 +5448,10 @@
         <v>525</v>
       </c>
       <c r="C171" t="s">
+        <v>527</v>
+      </c>
+      <c r="D171" t="s">
         <v>526</v>
-      </c>
-      <c r="D171" t="s">
-        <v>527</v>
       </c>
       <c r="E171">
         <v>0.5248507</v>
@@ -5455,10 +5468,10 @@
         <v>529</v>
       </c>
       <c r="C172" t="s">
+        <v>531</v>
+      </c>
+      <c r="D172" t="s">
         <v>530</v>
-      </c>
-      <c r="D172" t="s">
-        <v>531</v>
       </c>
       <c r="E172">
         <v>-2.1102500000000002</v>
@@ -5475,10 +5488,10 @@
         <v>533</v>
       </c>
       <c r="C173" t="s">
+        <v>535</v>
+      </c>
+      <c r="D173" t="s">
         <v>534</v>
-      </c>
-      <c r="D173" t="s">
-        <v>535</v>
       </c>
       <c r="E173">
         <v>-1.2360571</v>
@@ -5495,10 +5508,10 @@
         <v>537</v>
       </c>
       <c r="C174" t="s">
+        <v>539</v>
+      </c>
+      <c r="D174" t="s">
         <v>538</v>
-      </c>
-      <c r="D174" t="s">
-        <v>539</v>
       </c>
       <c r="E174">
         <v>-3.4316024999999999</v>
@@ -5515,10 +5528,10 @@
         <v>541</v>
       </c>
       <c r="C175" t="s">
+        <v>543</v>
+      </c>
+      <c r="D175" t="s">
         <v>542</v>
-      </c>
-      <c r="D175" t="s">
-        <v>543</v>
       </c>
       <c r="E175">
         <v>-1.9798279000000001</v>
@@ -5535,10 +5548,10 @@
         <v>545</v>
       </c>
       <c r="C176" t="s">
+        <v>547</v>
+      </c>
+      <c r="D176" t="s">
         <v>546</v>
-      </c>
-      <c r="D176" t="s">
-        <v>547</v>
       </c>
       <c r="E176">
         <v>-6.6545426000000001</v>
@@ -5555,10 +5568,10 @@
         <v>549</v>
       </c>
       <c r="C177" t="s">
+        <v>551</v>
+      </c>
+      <c r="D177" t="s">
         <v>550</v>
-      </c>
-      <c r="D177" t="s">
-        <v>551</v>
       </c>
       <c r="E177">
         <v>-1.0908485999999999</v>
@@ -5575,10 +5588,10 @@
         <v>553</v>
       </c>
       <c r="C178" t="s">
+        <v>555</v>
+      </c>
+      <c r="D178" t="s">
         <v>554</v>
-      </c>
-      <c r="D178" t="s">
-        <v>555</v>
       </c>
       <c r="E178">
         <v>-1.3511453</v>
@@ -5595,10 +5608,10 @@
         <v>557</v>
       </c>
       <c r="C179" t="s">
+        <v>559</v>
+      </c>
+      <c r="D179" t="s">
         <v>558</v>
-      </c>
-      <c r="D179" t="s">
-        <v>559</v>
       </c>
       <c r="E179">
         <v>-0.47657369999999999</v>
@@ -5615,10 +5628,10 @@
         <v>561</v>
       </c>
       <c r="C180" t="s">
+        <v>563</v>
+      </c>
+      <c r="D180" t="s">
         <v>562</v>
-      </c>
-      <c r="D180" t="s">
-        <v>563</v>
       </c>
       <c r="E180">
         <v>-2.6291457</v>
@@ -5635,10 +5648,10 @@
         <v>565</v>
       </c>
       <c r="C181" t="s">
+        <v>567</v>
+      </c>
+      <c r="D181" t="s">
         <v>566</v>
-      </c>
-      <c r="D181" t="s">
-        <v>567</v>
       </c>
       <c r="E181">
         <v>-2.2240671999999999</v>

--- a/bot.xlsx
+++ b/bot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flame\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E9B2B9-4132-4662-B2E8-94C62F160DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD7021C-7325-44A6-92CA-FF3B96A9A2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="671">
   <si>
     <t>Store Name</t>
   </si>
@@ -1737,6 +1737,315 @@
   </si>
   <si>
     <t>WR1 3LE</t>
+  </si>
+  <si>
+    <t>Do or Dice </t>
+  </si>
+  <si>
+    <t>Unit 6b, One, Market St, Addlestone KT15 2GB</t>
+  </si>
+  <si>
+    <t>KT15 2GB</t>
+  </si>
+  <si>
+    <t>The Missing Geek </t>
+  </si>
+  <si>
+    <t>11 Clarence St, Staines TW18 4SU</t>
+  </si>
+  <si>
+    <t>TW18 4SU</t>
+  </si>
+  <si>
+    <t>Collectors Cardhouse</t>
+  </si>
+  <si>
+    <t>Lower Rd, Chorleywood, Rickmansworth WD3 5LH</t>
+  </si>
+  <si>
+    <t>WD3 5LH</t>
+  </si>
+  <si>
+    <t>Tabletop Republic - High Wycombe</t>
+  </si>
+  <si>
+    <t>37 High St, High Wycombe HP11 2AG</t>
+  </si>
+  <si>
+    <t>HP11 2AG</t>
+  </si>
+  <si>
+    <t>Axion Now</t>
+  </si>
+  <si>
+    <t>Merritt House, 1 Hill Ave, Amersham HP6 5BQ</t>
+  </si>
+  <si>
+    <t>HP6 5BQ</t>
+  </si>
+  <si>
+    <t>Eclectic Games</t>
+  </si>
+  <si>
+    <t>5 Union St, Reading RG1 1EU</t>
+  </si>
+  <si>
+    <t>RG1 1EU</t>
+  </si>
+  <si>
+    <t>Elemental Cards</t>
+  </si>
+  <si>
+    <t>Holme Grange Craft Village, Unit 4 Heathlands Rd, Wokingham RG40 3AW</t>
+  </si>
+  <si>
+    <t>RG40 3AW</t>
+  </si>
+  <si>
+    <t>Osv Gaming</t>
+  </si>
+  <si>
+    <t>25a waterbourne walk, Leighton Buzzard LU7 1DH</t>
+  </si>
+  <si>
+    <t>01525 377716</t>
+  </si>
+  <si>
+    <t>LU7 1DH</t>
+  </si>
+  <si>
+    <t>Clockwork Dragon</t>
+  </si>
+  <si>
+    <t>42 Bath St, Abingdon OX14 3QH</t>
+  </si>
+  <si>
+    <t>OX14 3QH</t>
+  </si>
+  <si>
+    <t>Atomic Cards</t>
+  </si>
+  <si>
+    <t>Unit T18, The I O Centre, Hobley Dr, Swindon SN3 4JG</t>
+  </si>
+  <si>
+    <t>SN3 4JG</t>
+  </si>
+  <si>
+    <t>The Card Market</t>
+  </si>
+  <si>
+    <t>5 Market Hall, THE ARCADE, Bedford MK40 1NS</t>
+  </si>
+  <si>
+    <t>MK40 1NS</t>
+  </si>
+  <si>
+    <t>TabletopMK</t>
+  </si>
+  <si>
+    <t>59 Stratford Rd, Wolverton, Milton Keynes MK12 5LT</t>
+  </si>
+  <si>
+    <t>MK12 5LT</t>
+  </si>
+  <si>
+    <t>Wargames Workshop MK </t>
+  </si>
+  <si>
+    <t>18-19/Kingston Quarter/Winchester Circle, Milton Keynes MK10 0BA</t>
+  </si>
+  <si>
+    <t>MK10 0BA</t>
+  </si>
+  <si>
+    <t>The Pokemon Plug</t>
+  </si>
+  <si>
+    <t>1 St Mary's St, Huntingdon PE29 3PE</t>
+  </si>
+  <si>
+    <t>PE29 3PE</t>
+  </si>
+  <si>
+    <t>Picklestix TCG</t>
+  </si>
+  <si>
+    <t>4 Fishers Yard, St. Neots PE19 2AG</t>
+  </si>
+  <si>
+    <t>PE19 2AG</t>
+  </si>
+  <si>
+    <t>Kingdom Gaming</t>
+  </si>
+  <si>
+    <t>The Ridings, Northampton NN1 2BA</t>
+  </si>
+  <si>
+    <t>NN1 2BA</t>
+  </si>
+  <si>
+    <t>Unified Cards</t>
+  </si>
+  <si>
+    <t>35a Corporation St, Willow Pl, Corby NN17 1NQ</t>
+  </si>
+  <si>
+    <t>NN17 1NQ</t>
+  </si>
+  <si>
+    <t>WildPhire Collectables</t>
+  </si>
+  <si>
+    <t>91 High St, Rushden NN10 0NZ</t>
+  </si>
+  <si>
+    <t>NN10 0NZ</t>
+  </si>
+  <si>
+    <t>Athena Games</t>
+  </si>
+  <si>
+    <t>9, St Gregory's Alley, Norwich NR2 1ER</t>
+  </si>
+  <si>
+    <t>NR2 1ER</t>
+  </si>
+  <si>
+    <t>The Rift</t>
+  </si>
+  <si>
+    <t>Rivergate Arcade, Viersen Platz, Peterborough PE1 1EL</t>
+  </si>
+  <si>
+    <t>PE1 1EL</t>
+  </si>
+  <si>
+    <t>GG Trading Cards and Collectables</t>
+  </si>
+  <si>
+    <t>Pod 12/13, Stonham Barns, Pettaugh road, Stonham Aspal, Stowmarket IP14 6AT</t>
+  </si>
+  <si>
+    <t>IP14 6AT</t>
+  </si>
+  <si>
+    <t>Rocket's Hideout!</t>
+  </si>
+  <si>
+    <t>64a Gowthorpe, Selby YO8 4ET</t>
+  </si>
+  <si>
+    <t>YO8 4ET</t>
+  </si>
+  <si>
+    <t>Planet JJ's - Geekery</t>
+  </si>
+  <si>
+    <t>11, Quarry Hill Parade, Tonbridge TN9 2HR</t>
+  </si>
+  <si>
+    <t>TN9 2HR</t>
+  </si>
+  <si>
+    <t>Chaos Cards Tabletop Gaming Centre</t>
+  </si>
+  <si>
+    <t>100 Sandgate Rd, Folkestone CT20 2BW</t>
+  </si>
+  <si>
+    <t>CT20 2BW</t>
+  </si>
+  <si>
+    <t>Eclipse Gaming</t>
+  </si>
+  <si>
+    <t>39 Railway St, Chatham ME4 4RH</t>
+  </si>
+  <si>
+    <t>ME4 4RH</t>
+  </si>
+  <si>
+    <t>Protect and Collect</t>
+  </si>
+  <si>
+    <t>61 Pelham Rd S, Gravesend DA11 8QS</t>
+  </si>
+  <si>
+    <t>DA11 8QS</t>
+  </si>
+  <si>
+    <t>Cataclysm Games UK</t>
+  </si>
+  <si>
+    <t>45 Canterbury St, Gillingham ME7 5TR</t>
+  </si>
+  <si>
+    <t>ME7 5TR</t>
+  </si>
+  <si>
+    <t>LT Gaming</t>
+  </si>
+  <si>
+    <t>LT Gaming, 41 Robertson St, Hastings TN34 1HL</t>
+  </si>
+  <si>
+    <t>TN34 1HL</t>
+  </si>
+  <si>
+    <t>Level Up Games</t>
+  </si>
+  <si>
+    <t>40 Palace St, Canterbury CT1 2DZ</t>
+  </si>
+  <si>
+    <t>CT1 2DZ</t>
+  </si>
+  <si>
+    <t>Famous Collectables</t>
+  </si>
+  <si>
+    <t>19 Western Rd, Bexhill-on-Sea TN40 1DU</t>
+  </si>
+  <si>
+    <t>TN40 1DU</t>
+  </si>
+  <si>
+    <t>Galleon Games</t>
+  </si>
+  <si>
+    <t>30 St Leonards Rd, Bexhill-on-Sea TN40 1HT</t>
+  </si>
+  <si>
+    <t>TN40 1HT</t>
+  </si>
+  <si>
+    <t>Bat Cave</t>
+  </si>
+  <si>
+    <t>5c Town Hall St, Blackburn BB2 1AG</t>
+  </si>
+  <si>
+    <t>BB2 1AG</t>
+  </si>
+  <si>
+    <t>Geek Retreat Blackburn</t>
+  </si>
+  <si>
+    <t>50 - 54 Church St, Blackburn BB1 5AL</t>
+  </si>
+  <si>
+    <t>BB1 5AL</t>
+  </si>
+  <si>
+    <t>Tabletop Dominion</t>
+  </si>
+  <si>
+    <t>14 Broadway, Accrington BB5 1EY</t>
+  </si>
+  <si>
+    <t>BB5 1EY</t>
   </si>
 </sst>
 </file>
@@ -2104,10 +2413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153:D181"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A204" sqref="A204:F215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5660,6 +5969,665 @@
         <v>52.193045699999999</v>
       </c>
     </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>568</v>
+      </c>
+      <c r="B182" t="s">
+        <v>569</v>
+      </c>
+      <c r="C182" t="s">
+        <v>570</v>
+      </c>
+      <c r="E182">
+        <v>-0.48982999999999999</v>
+      </c>
+      <c r="F182">
+        <v>51.370089999999998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>571</v>
+      </c>
+      <c r="B183" t="s">
+        <v>572</v>
+      </c>
+      <c r="C183" t="s">
+        <v>573</v>
+      </c>
+      <c r="D183">
+        <v>1784557007</v>
+      </c>
+      <c r="E183">
+        <v>-0.51437940000000004</v>
+      </c>
+      <c r="F183">
+        <v>51.433722299999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>574</v>
+      </c>
+      <c r="B184" t="s">
+        <v>575</v>
+      </c>
+      <c r="C184" t="s">
+        <v>576</v>
+      </c>
+      <c r="E184">
+        <v>-0.52002769999999998</v>
+      </c>
+      <c r="F184">
+        <v>51.654079099999997</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>577</v>
+      </c>
+      <c r="B185" t="s">
+        <v>578</v>
+      </c>
+      <c r="C185" t="s">
+        <v>579</v>
+      </c>
+      <c r="D185">
+        <v>1494257566</v>
+      </c>
+      <c r="E185">
+        <v>-0.75032410000000005</v>
+      </c>
+      <c r="F185">
+        <v>51.628897500000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>580</v>
+      </c>
+      <c r="B186" t="s">
+        <v>581</v>
+      </c>
+      <c r="C186" t="s">
+        <v>582</v>
+      </c>
+      <c r="D186">
+        <v>1494728181</v>
+      </c>
+      <c r="E186">
+        <v>-0.60797389999999996</v>
+      </c>
+      <c r="F186">
+        <v>51.674631499999997</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>583</v>
+      </c>
+      <c r="B187" t="s">
+        <v>584</v>
+      </c>
+      <c r="C187" t="s">
+        <v>585</v>
+      </c>
+      <c r="D187">
+        <v>1189598250</v>
+      </c>
+      <c r="E187">
+        <v>-0.9734507</v>
+      </c>
+      <c r="F187">
+        <v>51.456302100000002</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>586</v>
+      </c>
+      <c r="B188" t="s">
+        <v>587</v>
+      </c>
+      <c r="C188" t="s">
+        <v>588</v>
+      </c>
+      <c r="D188">
+        <v>7908441130</v>
+      </c>
+      <c r="E188">
+        <v>-0.81596999999999997</v>
+      </c>
+      <c r="F188">
+        <v>51.39414</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>589</v>
+      </c>
+      <c r="B189" t="s">
+        <v>590</v>
+      </c>
+      <c r="C189" t="s">
+        <v>592</v>
+      </c>
+      <c r="D189" t="s">
+        <v>591</v>
+      </c>
+      <c r="E189">
+        <v>-0.66358289999999998</v>
+      </c>
+      <c r="F189">
+        <v>51.916846200000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>593</v>
+      </c>
+      <c r="B190" t="s">
+        <v>594</v>
+      </c>
+      <c r="C190" t="s">
+        <v>595</v>
+      </c>
+      <c r="D190">
+        <v>1235528462</v>
+      </c>
+      <c r="E190">
+        <v>-1.2836194000000001</v>
+      </c>
+      <c r="F190">
+        <v>51.670870899999997</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>596</v>
+      </c>
+      <c r="B191" t="s">
+        <v>597</v>
+      </c>
+      <c r="C191" t="s">
+        <v>598</v>
+      </c>
+      <c r="D191">
+        <v>1793376112</v>
+      </c>
+      <c r="E191">
+        <v>-1.7520024999999999</v>
+      </c>
+      <c r="F191">
+        <v>51.5827253</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>599</v>
+      </c>
+      <c r="B192" t="s">
+        <v>600</v>
+      </c>
+      <c r="C192" t="s">
+        <v>601</v>
+      </c>
+      <c r="E192">
+        <v>-0.46767910000000001</v>
+      </c>
+      <c r="F192">
+        <v>52.1374371</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>602</v>
+      </c>
+      <c r="B193" t="s">
+        <v>603</v>
+      </c>
+      <c r="C193" t="s">
+        <v>604</v>
+      </c>
+      <c r="E193">
+        <v>-0.8148725</v>
+      </c>
+      <c r="F193">
+        <v>52.062492399999996</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>605</v>
+      </c>
+      <c r="B194" t="s">
+        <v>606</v>
+      </c>
+      <c r="C194" t="s">
+        <v>607</v>
+      </c>
+      <c r="E194">
+        <v>-0.68980859999999999</v>
+      </c>
+      <c r="F194">
+        <v>52.035299299999998</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>608</v>
+      </c>
+      <c r="B195" t="s">
+        <v>609</v>
+      </c>
+      <c r="C195" t="s">
+        <v>610</v>
+      </c>
+      <c r="D195">
+        <v>1480431142</v>
+      </c>
+      <c r="E195">
+        <v>-0.1819954</v>
+      </c>
+      <c r="F195">
+        <v>52.328454100000002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>611</v>
+      </c>
+      <c r="B196" t="s">
+        <v>612</v>
+      </c>
+      <c r="C196" t="s">
+        <v>613</v>
+      </c>
+      <c r="D196">
+        <v>7710137981</v>
+      </c>
+      <c r="E196">
+        <v>-0.27056409999999997</v>
+      </c>
+      <c r="F196">
+        <v>52.2268179</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>614</v>
+      </c>
+      <c r="B197" t="s">
+        <v>615</v>
+      </c>
+      <c r="C197" t="s">
+        <v>616</v>
+      </c>
+      <c r="D197">
+        <v>1604458503</v>
+      </c>
+      <c r="E197">
+        <v>-0.89150700000000005</v>
+      </c>
+      <c r="F197">
+        <v>52.238549599999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>617</v>
+      </c>
+      <c r="B198" t="s">
+        <v>618</v>
+      </c>
+      <c r="C198" t="s">
+        <v>619</v>
+      </c>
+      <c r="D198">
+        <v>7504722951</v>
+      </c>
+      <c r="E198">
+        <v>-0.70262190000000002</v>
+      </c>
+      <c r="F198">
+        <v>52.487569200000003</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>620</v>
+      </c>
+      <c r="B199" t="s">
+        <v>621</v>
+      </c>
+      <c r="C199" t="s">
+        <v>622</v>
+      </c>
+      <c r="D199">
+        <v>7445045102</v>
+      </c>
+      <c r="E199">
+        <v>-0.59847260000000002</v>
+      </c>
+      <c r="F199">
+        <v>52.291762599999998</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>623</v>
+      </c>
+      <c r="B200" t="s">
+        <v>624</v>
+      </c>
+      <c r="C200" t="s">
+        <v>625</v>
+      </c>
+      <c r="D200">
+        <v>1603460910</v>
+      </c>
+      <c r="E200">
+        <v>1.2911577999999999</v>
+      </c>
+      <c r="F200">
+        <v>52.6304309</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>626</v>
+      </c>
+      <c r="B201" t="s">
+        <v>627</v>
+      </c>
+      <c r="C201" t="s">
+        <v>628</v>
+      </c>
+      <c r="D201">
+        <v>1733341007</v>
+      </c>
+      <c r="E201">
+        <v>-0.242892</v>
+      </c>
+      <c r="F201">
+        <v>52.569692099999997</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>629</v>
+      </c>
+      <c r="B202" t="s">
+        <v>630</v>
+      </c>
+      <c r="C202" t="s">
+        <v>631</v>
+      </c>
+      <c r="D202">
+        <v>7861925738</v>
+      </c>
+      <c r="E202">
+        <v>1.1374873000000001</v>
+      </c>
+      <c r="F202">
+        <v>52.189046500000003</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>632</v>
+      </c>
+      <c r="B203" t="s">
+        <v>633</v>
+      </c>
+      <c r="C203" t="s">
+        <v>634</v>
+      </c>
+      <c r="D203">
+        <v>1757713998</v>
+      </c>
+      <c r="E203">
+        <v>-1.0719958000000001</v>
+      </c>
+      <c r="F203">
+        <v>53.7837429</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>635</v>
+      </c>
+      <c r="B204" t="s">
+        <v>636</v>
+      </c>
+      <c r="C204" t="s">
+        <v>637</v>
+      </c>
+      <c r="E204">
+        <v>0.27000059999999998</v>
+      </c>
+      <c r="F204">
+        <v>51.190068500000002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>638</v>
+      </c>
+      <c r="B205" t="s">
+        <v>639</v>
+      </c>
+      <c r="C205" t="s">
+        <v>640</v>
+      </c>
+      <c r="D205">
+        <v>1303255522</v>
+      </c>
+      <c r="E205">
+        <v>1.1755243</v>
+      </c>
+      <c r="F205">
+        <v>51.077955899999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>641</v>
+      </c>
+      <c r="B206" t="s">
+        <v>642</v>
+      </c>
+      <c r="C206" t="s">
+        <v>643</v>
+      </c>
+      <c r="D206">
+        <v>1634553555</v>
+      </c>
+      <c r="E206">
+        <v>0.52291889999999996</v>
+      </c>
+      <c r="F206">
+        <v>51.381970799999998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>644</v>
+      </c>
+      <c r="B207" t="s">
+        <v>645</v>
+      </c>
+      <c r="C207" t="s">
+        <v>646</v>
+      </c>
+      <c r="D207">
+        <v>7763981878</v>
+      </c>
+      <c r="E207">
+        <v>0.35454989999999997</v>
+      </c>
+      <c r="F207">
+        <v>51.434489900000003</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>647</v>
+      </c>
+      <c r="B208" t="s">
+        <v>648</v>
+      </c>
+      <c r="C208" t="s">
+        <v>649</v>
+      </c>
+      <c r="D208">
+        <v>1634852303</v>
+      </c>
+      <c r="E208">
+        <v>0.54405590000000004</v>
+      </c>
+      <c r="F208">
+        <v>51.385871700000003</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>650</v>
+      </c>
+      <c r="B209" t="s">
+        <v>651</v>
+      </c>
+      <c r="C209" t="s">
+        <v>652</v>
+      </c>
+      <c r="E209">
+        <v>0.57810980000000001</v>
+      </c>
+      <c r="F209">
+        <v>50.855362999999997</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>653</v>
+      </c>
+      <c r="B210" t="s">
+        <v>654</v>
+      </c>
+      <c r="C210" t="s">
+        <v>655</v>
+      </c>
+      <c r="D210">
+        <v>1227785002</v>
+      </c>
+      <c r="E210">
+        <v>1.081637</v>
+      </c>
+      <c r="F210">
+        <v>51.281276499999997</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>656</v>
+      </c>
+      <c r="B211" t="s">
+        <v>657</v>
+      </c>
+      <c r="C211" t="s">
+        <v>658</v>
+      </c>
+      <c r="D211">
+        <v>1424215577</v>
+      </c>
+      <c r="E211">
+        <v>0.47249089999999999</v>
+      </c>
+      <c r="F211">
+        <v>50.840087799999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>659</v>
+      </c>
+      <c r="B212" t="s">
+        <v>660</v>
+      </c>
+      <c r="C212" t="s">
+        <v>661</v>
+      </c>
+      <c r="D212">
+        <v>1424612653</v>
+      </c>
+      <c r="E212">
+        <v>0.475358</v>
+      </c>
+      <c r="F212">
+        <v>50.839662400000002</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>662</v>
+      </c>
+      <c r="B213" t="s">
+        <v>663</v>
+      </c>
+      <c r="C213" t="s">
+        <v>664</v>
+      </c>
+      <c r="D213">
+        <v>1254846356</v>
+      </c>
+      <c r="E213">
+        <v>-2.4852764999999999</v>
+      </c>
+      <c r="F213">
+        <v>53.749734500000002</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>665</v>
+      </c>
+      <c r="B214" t="s">
+        <v>666</v>
+      </c>
+      <c r="C214" t="s">
+        <v>667</v>
+      </c>
+      <c r="D214">
+        <v>7943622350</v>
+      </c>
+      <c r="E214">
+        <v>-2.4814006000000002</v>
+      </c>
+      <c r="F214">
+        <v>53.747911999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>668</v>
+      </c>
+      <c r="B215" t="s">
+        <v>669</v>
+      </c>
+      <c r="C215" t="s">
+        <v>670</v>
+      </c>
+      <c r="D215">
+        <v>7990388340</v>
+      </c>
+      <c r="E215">
+        <v>-2.36503</v>
+      </c>
+      <c r="F215">
+        <v>53.753480000000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
